--- a/Code/Results/Cases/Case_5_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_86/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.509874005601716</v>
+        <v>0.859238885935099</v>
       </c>
       <c r="C2">
-        <v>1.105493545964464</v>
+        <v>0.3418508317708984</v>
       </c>
       <c r="D2">
-        <v>0.04336585985410579</v>
+        <v>0.03885608809627428</v>
       </c>
       <c r="E2">
-        <v>0.173703713693115</v>
+        <v>0.087184406597693</v>
       </c>
       <c r="F2">
-        <v>2.528896549905312</v>
+        <v>1.557330138999873</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.336350052405322</v>
+        <v>0.9864072933335706</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.067084129389002</v>
+        <v>0.3925723809337143</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.161564942372308</v>
+        <v>0.7684864284123023</v>
       </c>
       <c r="C3">
-        <v>0.9498033097956409</v>
+        <v>0.3006474811030273</v>
       </c>
       <c r="D3">
-        <v>0.04168773766913603</v>
+        <v>0.03843379391274127</v>
       </c>
       <c r="E3">
-        <v>0.1508314843461918</v>
+        <v>0.08181199126968863</v>
       </c>
       <c r="F3">
-        <v>2.233464669090679</v>
+        <v>1.488194764439896</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.20380081743032</v>
+        <v>0.956434105413777</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9169352325191156</v>
+        <v>0.3545240259354614</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.950918628924569</v>
+        <v>0.7131505995822636</v>
       </c>
       <c r="C4">
-        <v>0.8559658127324212</v>
+        <v>0.275457126316013</v>
       </c>
       <c r="D4">
-        <v>0.04077442167886858</v>
+        <v>0.03819084857061128</v>
       </c>
       <c r="E4">
-        <v>0.1372303115794615</v>
+        <v>0.07857295233063155</v>
       </c>
       <c r="F4">
-        <v>2.05793184343581</v>
+        <v>1.446716133549685</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.125596053679146</v>
+        <v>0.938591943007097</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8266082537000585</v>
+        <v>0.331377648331717</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.865753341874324</v>
+        <v>0.69069678383309</v>
       </c>
       <c r="C5">
-        <v>0.8180960008670013</v>
+        <v>0.2652181449358864</v>
       </c>
       <c r="D5">
-        <v>0.04042836860297072</v>
+        <v>0.03809587335061693</v>
       </c>
       <c r="E5">
-        <v>0.1317839861913122</v>
+        <v>0.0772677193690221</v>
       </c>
       <c r="F5">
-        <v>1.987695562552787</v>
+        <v>1.430054052876926</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.094435008677564</v>
+        <v>0.931460468732908</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7901970967170797</v>
+        <v>0.3219984755833636</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.851648796904527</v>
+        <v>0.6869741073581679</v>
       </c>
       <c r="C6">
-        <v>0.8118281078699283</v>
+        <v>0.263519528058282</v>
       </c>
       <c r="D6">
-        <v>0.04037239488137345</v>
+        <v>0.03808034358176471</v>
       </c>
       <c r="E6">
-        <v>0.1308850321636719</v>
+        <v>0.07705186575601886</v>
       </c>
       <c r="F6">
-        <v>1.976106152801165</v>
+        <v>1.427301774360572</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.089300982606403</v>
+        <v>0.9302846556908548</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7841731327170294</v>
+        <v>0.3204442527094145</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.949767495468137</v>
+        <v>0.7128473925129413</v>
       </c>
       <c r="C7">
-        <v>0.8554536801807728</v>
+        <v>0.2753189347185128</v>
       </c>
       <c r="D7">
-        <v>0.04076965300045998</v>
+        <v>0.03818955150680026</v>
       </c>
       <c r="E7">
-        <v>0.1371564894874737</v>
+        <v>0.07855529036418218</v>
       </c>
       <c r="F7">
-        <v>2.056979594937289</v>
+        <v>1.446490452300424</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.125173053228565</v>
+        <v>0.9384952036657239</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8261156782439585</v>
+        <v>0.3312509435946609</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.389024239732464</v>
+        <v>0.8278664377278346</v>
       </c>
       <c r="C8">
-        <v>1.051401120817047</v>
+        <v>0.3276207234189883</v>
       </c>
       <c r="D8">
-        <v>0.04276084507873179</v>
+        <v>0.03870703842833834</v>
       </c>
       <c r="E8">
-        <v>0.1657160039327366</v>
+        <v>0.08531943730448432</v>
       </c>
       <c r="F8">
-        <v>2.425700855639917</v>
+        <v>1.533288758455683</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.289928698301594</v>
+        <v>0.9759548793168022</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.014880508734969</v>
+        <v>0.3794079595848103</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282807944349429</v>
+        <v>1.056554149964825</v>
       </c>
       <c r="C9">
-        <v>1.453294740184504</v>
+        <v>0.4310988719794864</v>
       </c>
       <c r="D9">
-        <v>0.04776465661286267</v>
+        <v>0.03985532292252003</v>
       </c>
       <c r="E9">
-        <v>0.22600246587605</v>
+        <v>0.09907132646738148</v>
       </c>
       <c r="F9">
-        <v>3.204444789198106</v>
+        <v>1.711361868640665</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.642930838669528</v>
+        <v>1.05395580332636</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.4034973531883</v>
+        <v>0.4756047487397979</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.970315655343143</v>
+        <v>1.22659756559608</v>
       </c>
       <c r="C10">
-        <v>1.7653035441665</v>
+        <v>0.5077623236036857</v>
       </c>
       <c r="D10">
-        <v>0.05238828446845645</v>
+        <v>0.04078569740477889</v>
       </c>
       <c r="E10">
-        <v>0.2741529747255314</v>
+        <v>0.1094927007643633</v>
       </c>
       <c r="F10">
-        <v>3.825227295450702</v>
+        <v>1.847220030664971</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.928016788253899</v>
+        <v>1.114159691422884</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.706159004072902</v>
+        <v>0.5474332886716837</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.292764294525398</v>
+        <v>1.304421482805481</v>
       </c>
       <c r="C11">
-        <v>1.912498019512782</v>
+        <v>0.542795228998898</v>
       </c>
       <c r="D11">
-        <v>0.0547735800774376</v>
+        <v>0.041228946823054</v>
       </c>
       <c r="E11">
-        <v>0.297234993924036</v>
+        <v>0.1143072629544832</v>
       </c>
       <c r="F11">
-        <v>4.122142674927915</v>
+        <v>1.910169149029684</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.065309193548586</v>
+        <v>1.142204973610276</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.849164779263234</v>
+        <v>0.580378131204796</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.416560795750854</v>
+        <v>1.333960866045459</v>
       </c>
       <c r="C12">
-        <v>1.969156266818004</v>
+        <v>0.5560853916534256</v>
       </c>
       <c r="D12">
-        <v>0.05572518617369582</v>
+        <v>0.0413997665543917</v>
       </c>
       <c r="E12">
-        <v>0.3061793581378467</v>
+        <v>0.1161413861725151</v>
       </c>
       <c r="F12">
-        <v>4.237059642038247</v>
+        <v>1.934175194312047</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.118593441624157</v>
+        <v>1.152921812438521</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.904243348056866</v>
+        <v>0.5928935943051954</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.38981845671259</v>
+        <v>1.327595930807661</v>
       </c>
       <c r="C13">
-        <v>1.95691013761666</v>
+        <v>0.5532220323207184</v>
       </c>
       <c r="D13">
-        <v>0.05551795068247856</v>
+        <v>0.04136284386335376</v>
       </c>
       <c r="E13">
-        <v>0.304243357200555</v>
+        <v>0.1157458823683299</v>
       </c>
       <c r="F13">
-        <v>4.21219285823264</v>
+        <v>1.928997505798861</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.10705658134161</v>
+        <v>1.150609415933047</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.892337190103973</v>
+        <v>0.5901963687232978</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.302913307286929</v>
+        <v>1.306850310752168</v>
       </c>
       <c r="C14">
-        <v>1.91713987959514</v>
+        <v>0.5438881315094477</v>
       </c>
       <c r="D14">
-        <v>0.05485085049632232</v>
+        <v>0.04124294019381125</v>
       </c>
       <c r="E14">
-        <v>0.2979665513076455</v>
+        <v>0.1144579359139897</v>
       </c>
       <c r="F14">
-        <v>4.13154473510636</v>
+        <v>1.912140740839021</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.069665702818526</v>
+        <v>1.143084704606537</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.853676565202804</v>
+        <v>0.5814069780152806</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.24991146076286</v>
+        <v>1.294152071614974</v>
       </c>
       <c r="C15">
-        <v>1.892904418814169</v>
+        <v>0.5381740042016077</v>
       </c>
       <c r="D15">
-        <v>0.05444878455143254</v>
+        <v>0.04116988537470689</v>
       </c>
       <c r="E15">
-        <v>0.2941494764177293</v>
+        <v>0.1136704680072071</v>
       </c>
       <c r="F15">
-        <v>4.082481421389843</v>
+        <v>1.901837550442167</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.046937844277878</v>
+        <v>1.138488255788474</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.83012154463519</v>
+        <v>0.5760284628548931</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.949462357641266</v>
+        <v>1.22152118256065</v>
       </c>
       <c r="C16">
-        <v>1.755803154385546</v>
+        <v>0.505476128241412</v>
       </c>
       <c r="D16">
-        <v>0.05223870875197179</v>
+        <v>0.04075714068718383</v>
       </c>
       <c r="E16">
-        <v>0.2726710143211619</v>
+        <v>0.1091795720661253</v>
       </c>
       <c r="F16">
-        <v>3.806147526905363</v>
+        <v>1.843129545314468</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.919213878583463</v>
+        <v>1.11234028605476</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.696933419292023</v>
+        <v>0.5452857932367721</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.767827179207814</v>
+        <v>1.177086010770722</v>
       </c>
       <c r="C17">
-        <v>1.67315041638534</v>
+        <v>0.485458432132873</v>
       </c>
       <c r="D17">
-        <v>0.05096023998972754</v>
+        <v>0.04050912755174352</v>
       </c>
       <c r="E17">
-        <v>0.2598190018406186</v>
+        <v>0.1064436997860199</v>
       </c>
       <c r="F17">
-        <v>3.640604567464635</v>
+        <v>1.807410370923634</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.842940179825973</v>
+        <v>1.096469392312201</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.616695799393483</v>
+        <v>0.5264960689365239</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.664247792534297</v>
+        <v>1.151572248965238</v>
       </c>
       <c r="C18">
-        <v>1.626094656657642</v>
+        <v>0.4739596112440836</v>
       </c>
       <c r="D18">
-        <v>0.05025089884253475</v>
+        <v>0.04036835552143714</v>
       </c>
       <c r="E18">
-        <v>0.2525353844479667</v>
+        <v>0.1048770269031962</v>
       </c>
       <c r="F18">
-        <v>3.546728132412653</v>
+        <v>1.786973341977557</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.799771627943784</v>
+        <v>1.087402706393007</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.571035302282837</v>
+        <v>0.5157140274994703</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.629322569598685</v>
+        <v>1.142941268937193</v>
       </c>
       <c r="C19">
-        <v>1.610240983255608</v>
+        <v>0.4700688188494269</v>
       </c>
       <c r="D19">
-        <v>0.05001497847543135</v>
+        <v>0.04032101237579866</v>
       </c>
       <c r="E19">
-        <v>0.2500869647308122</v>
+        <v>0.1043477581770205</v>
       </c>
       <c r="F19">
-        <v>3.515162273244925</v>
+        <v>1.780072099668502</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.785270479626334</v>
+        <v>1.084343440057268</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.5556551682525</v>
+        <v>0.5120677249783654</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.787068197332928</v>
+        <v>1.181811627981801</v>
       </c>
       <c r="C20">
-        <v>1.681897768714066</v>
+        <v>0.487587806782301</v>
       </c>
       <c r="D20">
-        <v>0.05109359221718535</v>
+        <v>0.04053533388341179</v>
       </c>
       <c r="E20">
-        <v>0.2611756594639232</v>
+        <v>0.1067342185639006</v>
       </c>
       <c r="F20">
-        <v>3.658085617136805</v>
+        <v>1.811201565235365</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.850985633242942</v>
+        <v>1.098152461867784</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.62518543894862</v>
+        <v>0.5284936390555401</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.328390906232585</v>
+        <v>1.312941912985366</v>
       </c>
       <c r="C21">
-        <v>1.928794993683312</v>
+        <v>0.5466290644647529</v>
       </c>
       <c r="D21">
-        <v>0.0550454125037092</v>
+        <v>0.04127807744171719</v>
       </c>
       <c r="E21">
-        <v>0.2998043690657326</v>
+        <v>0.1148359370380376</v>
       </c>
       <c r="F21">
-        <v>4.155162224603146</v>
+        <v>1.917087376346956</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.080611404705479</v>
+        <v>1.145292253933093</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.865005600708869</v>
+        <v>0.5839875408696145</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.692216904421343</v>
+        <v>1.399046968058201</v>
       </c>
       <c r="C22">
-        <v>2.095609762841491</v>
+        <v>0.5853561797363795</v>
       </c>
       <c r="D22">
-        <v>0.05791469210077338</v>
+        <v>0.04178086281171289</v>
       </c>
       <c r="E22">
-        <v>0.326258425582914</v>
+        <v>0.1201948807503186</v>
       </c>
       <c r="F22">
-        <v>4.494728723779673</v>
+        <v>1.987274241148157</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.238350272888482</v>
+        <v>1.176665433310617</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.027231279217418</v>
+        <v>0.6204895364001715</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.497005290330833</v>
+        <v>1.353053611058556</v>
       </c>
       <c r="C23">
-        <v>2.006017192520119</v>
+        <v>0.5646735557015745</v>
       </c>
       <c r="D23">
-        <v>0.0563541117168711</v>
+        <v>0.04151089767808003</v>
       </c>
       <c r="E23">
-        <v>0.3120158660651597</v>
+        <v>0.1173287428475973</v>
       </c>
       <c r="F23">
-        <v>4.312002517142417</v>
+        <v>1.949722884996618</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.153385053519159</v>
+        <v>1.159868634851719</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.940085705092073</v>
+        <v>0.6009859683627212</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.778366722539602</v>
+        <v>1.179675074980537</v>
       </c>
       <c r="C24">
-        <v>1.677941662329602</v>
+        <v>0.4866250866314203</v>
       </c>
       <c r="D24">
-        <v>0.05103322429608426</v>
+        <v>0.04052348035692432</v>
       </c>
       <c r="E24">
-        <v>0.2605619894570879</v>
+        <v>0.1066028556867593</v>
       </c>
       <c r="F24">
-        <v>3.650178425386798</v>
+        <v>1.809487260072075</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.847346173539336</v>
+        <v>1.097391366546461</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.621345823205345</v>
+        <v>0.5275904740860966</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.036495339458497</v>
+        <v>0.9943406728968966</v>
       </c>
       <c r="C25">
-        <v>1.342117218692806</v>
+        <v>0.4029991464112754</v>
       </c>
       <c r="D25">
-        <v>0.04626725468924064</v>
+        <v>0.03952983979711888</v>
       </c>
       <c r="E25">
-        <v>0.2091171831629168</v>
+        <v>0.09529676884175586</v>
       </c>
       <c r="F25">
-        <v>2.986417772131688</v>
+        <v>1.662322545892437</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.543519709002211</v>
+        <v>1.032355068990114</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.295832845895276</v>
+        <v>0.4493843379078157</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_86/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.859238885935099</v>
+        <v>2.509874005601546</v>
       </c>
       <c r="C2">
-        <v>0.3418508317708984</v>
+        <v>1.105493545964464</v>
       </c>
       <c r="D2">
-        <v>0.03885608809627428</v>
+        <v>0.04336585985407027</v>
       </c>
       <c r="E2">
-        <v>0.087184406597693</v>
+        <v>0.1737037136931363</v>
       </c>
       <c r="F2">
-        <v>1.557330138999873</v>
+        <v>2.528896549905312</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9864072933335706</v>
+        <v>1.336350052405351</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3925723809337143</v>
+        <v>1.067084129388988</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7684864284123023</v>
+        <v>2.161564942372195</v>
       </c>
       <c r="C3">
-        <v>0.3006474811030273</v>
+        <v>0.9498033097959251</v>
       </c>
       <c r="D3">
-        <v>0.03843379391274127</v>
+        <v>0.04168773766891221</v>
       </c>
       <c r="E3">
-        <v>0.08181199126968863</v>
+        <v>0.1508314843461918</v>
       </c>
       <c r="F3">
-        <v>1.488194764439896</v>
+        <v>2.233464669090651</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.956434105413777</v>
+        <v>1.203800817430334</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3545240259354614</v>
+        <v>0.9169352325191369</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7131505995822636</v>
+        <v>1.950918628924626</v>
       </c>
       <c r="C4">
-        <v>0.275457126316013</v>
+        <v>0.8559658127323928</v>
       </c>
       <c r="D4">
-        <v>0.03819084857061128</v>
+        <v>0.04077442167875134</v>
       </c>
       <c r="E4">
-        <v>0.07857295233063155</v>
+        <v>0.137230311579458</v>
       </c>
       <c r="F4">
-        <v>1.446716133549685</v>
+        <v>2.057931843435824</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.938591943007097</v>
+        <v>1.125596053679146</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.331377648331717</v>
+        <v>0.8266082537000443</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.69069678383309</v>
+        <v>1.865753341874239</v>
       </c>
       <c r="C5">
-        <v>0.2652181449358864</v>
+        <v>0.8180960008666034</v>
       </c>
       <c r="D5">
-        <v>0.03809587335061693</v>
+        <v>0.04042836860304178</v>
       </c>
       <c r="E5">
-        <v>0.0772677193690221</v>
+        <v>0.1317839861913157</v>
       </c>
       <c r="F5">
-        <v>1.430054052876926</v>
+        <v>1.987695562552759</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.931460468732908</v>
+        <v>1.094435008677593</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3219984755833636</v>
+        <v>0.7901970967170868</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6869741073581679</v>
+        <v>1.851648796904698</v>
       </c>
       <c r="C6">
-        <v>0.263519528058282</v>
+        <v>0.8118281078701273</v>
       </c>
       <c r="D6">
-        <v>0.03808034358176471</v>
+        <v>0.04037239488158306</v>
       </c>
       <c r="E6">
-        <v>0.07705186575601886</v>
+        <v>0.1308850321636754</v>
       </c>
       <c r="F6">
-        <v>1.427301774360572</v>
+        <v>1.976106152801194</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9302846556908548</v>
+        <v>1.089300982606389</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3204442527094145</v>
+        <v>0.7841731327170436</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7128473925129413</v>
+        <v>1.949767495468194</v>
       </c>
       <c r="C7">
-        <v>0.2753189347185128</v>
+        <v>0.8554536801808581</v>
       </c>
       <c r="D7">
-        <v>0.03818955150680026</v>
+        <v>0.04076965300044222</v>
       </c>
       <c r="E7">
-        <v>0.07855529036418218</v>
+        <v>0.1371564894874311</v>
       </c>
       <c r="F7">
-        <v>1.446490452300424</v>
+        <v>2.056979594937332</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9384952036657239</v>
+        <v>1.125173053228565</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3312509435946609</v>
+        <v>0.8261156782439301</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8278664377278346</v>
+        <v>2.389024239732407</v>
       </c>
       <c r="C8">
-        <v>0.3276207234189883</v>
+        <v>1.051401120817246</v>
       </c>
       <c r="D8">
-        <v>0.03870703842833834</v>
+        <v>0.04276084507836941</v>
       </c>
       <c r="E8">
-        <v>0.08531943730448432</v>
+        <v>0.1657160039326655</v>
       </c>
       <c r="F8">
-        <v>1.533288758455683</v>
+        <v>2.425700855639917</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9759548793168022</v>
+        <v>1.289928698301608</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3794079595848103</v>
+        <v>1.014880508734961</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.056554149964825</v>
+        <v>3.282807944349429</v>
       </c>
       <c r="C9">
-        <v>0.4310988719794864</v>
+        <v>1.453294740184788</v>
       </c>
       <c r="D9">
-        <v>0.03985532292252003</v>
+        <v>0.04776465661283424</v>
       </c>
       <c r="E9">
-        <v>0.09907132646738148</v>
+        <v>0.22600246587605</v>
       </c>
       <c r="F9">
-        <v>1.711361868640665</v>
+        <v>3.204444789198163</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.05395580332636</v>
+        <v>1.642930838669557</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4756047487397979</v>
+        <v>1.403497353188314</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.22659756559608</v>
+        <v>3.9703156553432</v>
       </c>
       <c r="C10">
-        <v>0.5077623236036857</v>
+        <v>1.765303544166557</v>
       </c>
       <c r="D10">
-        <v>0.04078569740477889</v>
+        <v>0.05238828446842092</v>
       </c>
       <c r="E10">
-        <v>0.1094927007643633</v>
+        <v>0.2741529747254674</v>
       </c>
       <c r="F10">
-        <v>1.847220030664971</v>
+        <v>3.825227295450787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.114159691422884</v>
+        <v>1.928016788253913</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5474332886716837</v>
+        <v>1.706159004072916</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.304421482805481</v>
+        <v>4.292764294525398</v>
       </c>
       <c r="C11">
-        <v>0.542795228998898</v>
+        <v>1.912498019512498</v>
       </c>
       <c r="D11">
-        <v>0.041228946823054</v>
+        <v>0.05477358007740918</v>
       </c>
       <c r="E11">
-        <v>0.1143072629544832</v>
+        <v>0.2972349939240857</v>
       </c>
       <c r="F11">
-        <v>1.910169149029684</v>
+        <v>4.122142674927943</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.142204973610276</v>
+        <v>2.065309193548629</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.580378131204796</v>
+        <v>1.84916477926329</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.333960866045459</v>
+        <v>4.416560795750684</v>
       </c>
       <c r="C12">
-        <v>0.5560853916534256</v>
+        <v>1.969156266817947</v>
       </c>
       <c r="D12">
-        <v>0.0413997665543917</v>
+        <v>0.05572518617375266</v>
       </c>
       <c r="E12">
-        <v>0.1161413861725151</v>
+        <v>0.306179358137797</v>
       </c>
       <c r="F12">
-        <v>1.934175194312047</v>
+        <v>4.237059642038275</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.152921812438521</v>
+        <v>2.118593441624171</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5928935943051954</v>
+        <v>1.904243348056838</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.327595930807661</v>
+        <v>4.389818456712533</v>
       </c>
       <c r="C13">
-        <v>0.5532220323207184</v>
+        <v>1.956910137616887</v>
       </c>
       <c r="D13">
-        <v>0.04136284386335376</v>
+        <v>0.05551795068225118</v>
       </c>
       <c r="E13">
-        <v>0.1157458823683299</v>
+        <v>0.3042433572005052</v>
       </c>
       <c r="F13">
-        <v>1.928997505798861</v>
+        <v>4.21219285823264</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.150609415933047</v>
+        <v>2.107056581341624</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5901963687232978</v>
+        <v>1.892337190103959</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.306850310752168</v>
+        <v>4.302913307287099</v>
       </c>
       <c r="C14">
-        <v>0.5438881315094477</v>
+        <v>1.91713987959514</v>
       </c>
       <c r="D14">
-        <v>0.04124294019381125</v>
+        <v>0.054850850496166</v>
       </c>
       <c r="E14">
-        <v>0.1144579359139897</v>
+        <v>0.2979665513076313</v>
       </c>
       <c r="F14">
-        <v>1.912140740839021</v>
+        <v>4.13154473510636</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.143084704606537</v>
+        <v>2.06966570281854</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5814069780152806</v>
+        <v>1.853676565202804</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.294152071614974</v>
+        <v>4.249911460762974</v>
       </c>
       <c r="C15">
-        <v>0.5381740042016077</v>
+        <v>1.892904418814567</v>
       </c>
       <c r="D15">
-        <v>0.04116988537470689</v>
+        <v>0.05444878455162439</v>
       </c>
       <c r="E15">
-        <v>0.1136704680072071</v>
+        <v>0.2941494764177364</v>
       </c>
       <c r="F15">
-        <v>1.901837550442167</v>
+        <v>4.0824814213899</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.138488255788474</v>
+        <v>2.046937844277892</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5760284628548931</v>
+        <v>1.830121544635205</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.22152118256065</v>
+        <v>3.949462357641323</v>
       </c>
       <c r="C16">
-        <v>0.505476128241412</v>
+        <v>1.755803154385546</v>
       </c>
       <c r="D16">
-        <v>0.04075714068718383</v>
+        <v>0.05223870875209258</v>
       </c>
       <c r="E16">
-        <v>0.1091795720661253</v>
+        <v>0.2726710143211619</v>
       </c>
       <c r="F16">
-        <v>1.843129545314468</v>
+        <v>3.806147526905363</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.11234028605476</v>
+        <v>1.919213878583477</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5452857932367721</v>
+        <v>1.69693341929198</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.177086010770722</v>
+        <v>3.76782717920787</v>
       </c>
       <c r="C17">
-        <v>0.485458432132873</v>
+        <v>1.673150416385283</v>
       </c>
       <c r="D17">
-        <v>0.04050912755174352</v>
+        <v>0.05096023998984123</v>
       </c>
       <c r="E17">
-        <v>0.1064436997860199</v>
+        <v>0.259819001840583</v>
       </c>
       <c r="F17">
-        <v>1.807410370923634</v>
+        <v>3.640604567464635</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.096469392312201</v>
+        <v>1.842940179826016</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5264960689365239</v>
+        <v>1.616695799393511</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.151572248965238</v>
+        <v>3.664247792534354</v>
       </c>
       <c r="C18">
-        <v>0.4739596112440836</v>
+        <v>1.626094656657983</v>
       </c>
       <c r="D18">
-        <v>0.04036835552143714</v>
+        <v>0.05025089884241396</v>
       </c>
       <c r="E18">
-        <v>0.1048770269031962</v>
+        <v>0.2525353844480165</v>
       </c>
       <c r="F18">
-        <v>1.786973341977557</v>
+        <v>3.546728132412653</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.087402706393007</v>
+        <v>1.799771627943812</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5157140274994703</v>
+        <v>1.571035302282823</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.142941268937193</v>
+        <v>3.629322569598514</v>
       </c>
       <c r="C19">
-        <v>0.4700688188494269</v>
+        <v>1.610240983255721</v>
       </c>
       <c r="D19">
-        <v>0.04032101237579866</v>
+        <v>0.05001497847540293</v>
       </c>
       <c r="E19">
-        <v>0.1043477581770205</v>
+        <v>0.2500869647307766</v>
       </c>
       <c r="F19">
-        <v>1.780072099668502</v>
+        <v>3.515162273244954</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.084343440057268</v>
+        <v>1.785270479626334</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5120677249783654</v>
+        <v>1.555655168252514</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.181811627981801</v>
+        <v>3.787068197332985</v>
       </c>
       <c r="C20">
-        <v>0.487587806782301</v>
+        <v>1.681897768714123</v>
       </c>
       <c r="D20">
-        <v>0.04053533388341179</v>
+        <v>0.05109359221700771</v>
       </c>
       <c r="E20">
-        <v>0.1067342185639006</v>
+        <v>0.2611756594639658</v>
       </c>
       <c r="F20">
-        <v>1.811201565235365</v>
+        <v>3.658085617136862</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.098152461867784</v>
+        <v>1.850985633242956</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5284936390555401</v>
+        <v>1.625185438948648</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.312941912985366</v>
+        <v>4.328390906232642</v>
       </c>
       <c r="C21">
-        <v>0.5466290644647529</v>
+        <v>1.928794993683653</v>
       </c>
       <c r="D21">
-        <v>0.04127807744171719</v>
+        <v>0.05504541250405026</v>
       </c>
       <c r="E21">
-        <v>0.1148359370380376</v>
+        <v>0.2998043690657397</v>
       </c>
       <c r="F21">
-        <v>1.917087376346956</v>
+        <v>4.155162224603203</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.145292253933093</v>
+        <v>2.080611404705493</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5839875408696145</v>
+        <v>1.865005600708898</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.399046968058201</v>
+        <v>4.692216904421457</v>
       </c>
       <c r="C22">
-        <v>0.5853561797363795</v>
+        <v>2.095609762841491</v>
       </c>
       <c r="D22">
-        <v>0.04178086281171289</v>
+        <v>0.05791469210041811</v>
       </c>
       <c r="E22">
-        <v>0.1201948807503186</v>
+        <v>0.3262584255828571</v>
       </c>
       <c r="F22">
-        <v>1.987274241148157</v>
+        <v>4.494728723779644</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.176665433310617</v>
+        <v>2.238350272888468</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6204895364001715</v>
+        <v>2.027231279217389</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.353053611058556</v>
+        <v>4.497005290330776</v>
       </c>
       <c r="C23">
-        <v>0.5646735557015745</v>
+        <v>2.006017192520289</v>
       </c>
       <c r="D23">
-        <v>0.04151089767808003</v>
+        <v>0.056354111716999</v>
       </c>
       <c r="E23">
-        <v>0.1173287428475973</v>
+        <v>0.3120158660651526</v>
       </c>
       <c r="F23">
-        <v>1.949722884996618</v>
+        <v>4.312002517142417</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.159868634851719</v>
+        <v>2.153385053519187</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6009859683627212</v>
+        <v>1.940085705092073</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.179675074980537</v>
+        <v>3.778366722539545</v>
       </c>
       <c r="C24">
-        <v>0.4866250866314203</v>
+        <v>1.677941662329545</v>
       </c>
       <c r="D24">
-        <v>0.04052348035692432</v>
+        <v>0.05103322429631163</v>
       </c>
       <c r="E24">
-        <v>0.1066028556867593</v>
+        <v>0.2605619894570665</v>
       </c>
       <c r="F24">
-        <v>1.809487260072075</v>
+        <v>3.650178425386827</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.097391366546461</v>
+        <v>1.84734617353935</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5275904740860966</v>
+        <v>1.621345823205345</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9943406728968966</v>
+        <v>3.036495339458327</v>
       </c>
       <c r="C25">
-        <v>0.4029991464112754</v>
+        <v>1.342117218692579</v>
       </c>
       <c r="D25">
-        <v>0.03952983979711888</v>
+        <v>0.04626725468947512</v>
       </c>
       <c r="E25">
-        <v>0.09529676884175586</v>
+        <v>0.2091171831629595</v>
       </c>
       <c r="F25">
-        <v>1.662322545892437</v>
+        <v>2.986417772131688</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.032355068990114</v>
+        <v>1.543519709002183</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4493843379078157</v>
+        <v>1.295832845895333</v>
       </c>
       <c r="N25">
         <v>0</v>
